--- a/output/correlation_matrix.xlsx
+++ b/output/correlation_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Data Type</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>IPC pharma</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Decisions cited</t>
+  </si>
+  <si>
+    <t>Opponents</t>
+  </si>
+  <si>
+    <t>patent revoked</t>
+  </si>
+  <si>
+    <t>numcitations</t>
   </si>
   <si>
     <t>int64</t>
@@ -425,209 +443,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>952</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>0.8403361344537815</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3664865618803495</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>952</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>758</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>952</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>412</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>952</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>545</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>952</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>0.4222689075630252</v>
+      </c>
+      <c r="I6">
+        <v>0.4941805388771433</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>952</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>412</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>952</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>545</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>952</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>0.4222689075630252</v>
-      </c>
-      <c r="H6">
-        <v>0.4941805388771433</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>952</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
         <v>2.189075630252101</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.781183278301223</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>32</v>
       </c>
     </row>

--- a/output/correlation_matrix.xlsx
+++ b/output/correlation_matrix.xlsx
@@ -14,51 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Non-Null Count</t>
-  </si>
-  <si>
-    <t>Null Count</t>
-  </si>
-  <si>
-    <t>Null Percentage</t>
-  </si>
-  <si>
-    <t>Unique Values</t>
-  </si>
-  <si>
-    <t>Top 5 Values</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>IPC pharma</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Decisions cited</t>
-  </si>
-  <si>
-    <t>Opponents</t>
   </si>
   <si>
     <t>patent revoked</t>
@@ -67,25 +25,13 @@
     <t>numcitations</t>
   </si>
   <si>
-    <t>int64</t>
+    <t>Keywords_encoded</t>
   </si>
   <si>
-    <t>object</t>
+    <t>Decisions cited_encoded</t>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{'Inventive step - (no)': 35, 'Basis of decision - text or agreement to text withdrawn by patent proprietor, Basis of decision - patent revoked': 29, 'Inventive step - (yes)': 18, 'Basis of decision - text or agreement to text withdrawn by patent proprietor': 16, '': 14}</t>
-  </si>
-  <si>
-    <t>{' /': 444, 'T 0073/84': 33, 'G 0003/14': 11, 'G 0002/10': 10, 'G 0002/21': 8}</t>
-  </si>
-  <si>
-    <t>{'': 159, 'Henkel AG &amp; Co. KGaA': 29, 'ARKEMA FRANCE': 11, 'N.V. Nutricia': 11, 'Generics (U.K.) Limited': 10}</t>
+    <t>Opponents_encoded</t>
   </si>
 </sst>
 </file>
@@ -443,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,203 +414,143 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>952</v>
+        <v>0.05913320905908661</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0626618194913655</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05959602353070435</v>
       </c>
       <c r="F2">
+        <v>0.0742226854403798</v>
+      </c>
+      <c r="G2">
+        <v>0.06196563745903423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.05913320905908661</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-0.03366974656204788</v>
+      </c>
+      <c r="E3">
+        <v>0.9578200170524767</v>
+      </c>
+      <c r="F3">
+        <v>0.7116723570455969</v>
+      </c>
+      <c r="G3">
+        <v>0.869461408091541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>0.8403361344537815</v>
-      </c>
-      <c r="I2">
-        <v>0.3664865618803495</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>952</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>758</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4">
+        <v>0.0626618194913655</v>
       </c>
       <c r="C4">
-        <v>952</v>
+        <v>-0.03366974656204788</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.0352019249670108</v>
       </c>
       <c r="F4">
-        <v>412</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-0.04731074100141087</v>
+      </c>
+      <c r="G4">
+        <v>-0.02958644952853337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.05959602353070435</v>
       </c>
       <c r="C5">
-        <v>952</v>
+        <v>0.9578200170524767</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.0352019249670108</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>545</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6995296771380649</v>
+      </c>
+      <c r="G5">
+        <v>0.8388445243668152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.0742226854403798</v>
       </c>
       <c r="C6">
-        <v>952</v>
+        <v>0.7116723570455969</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.04731074100141087</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6995296771380649</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>0.4222689075630252</v>
-      </c>
-      <c r="I6">
-        <v>0.4941805388771433</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6397601822799225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.06196563745903423</v>
       </c>
       <c r="C7">
-        <v>952</v>
+        <v>0.869461408091541</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.02958644952853337</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8388445243668152</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>2.189075630252101</v>
-      </c>
-      <c r="I7">
-        <v>2.781183278301223</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>32</v>
+        <v>0.6397601822799225</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
